--- a/src/data/winter20/directors_winter20.xlsx
+++ b/src/data/winter20/directors_winter20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/fall19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dsp/dspuci-website-gatsby/src/data/winter20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15245B00-066F-1B49-9503-03D653BBD8A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51839232-60BB-A647-9F26-11ED017994FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Content Creation</t>
   </si>
   <si>
-    <t>Mohit Shah</t>
-  </si>
-  <si>
     <t>External Relations</t>
   </si>
   <si>
@@ -63,31 +60,34 @@
     <t>University Relations</t>
   </si>
   <si>
-    <t>Edward Li</t>
-  </si>
-  <si>
-    <t>Anshul Bhanot</t>
-  </si>
-  <si>
-    <t>Brandon Khong</t>
-  </si>
-  <si>
     <t>Grace Hsiang</t>
   </si>
   <si>
-    <t>Jocelyn Kuo</t>
-  </si>
-  <si>
-    <t>Farbod Rafezy</t>
-  </si>
-  <si>
-    <t>Emily Su</t>
-  </si>
-  <si>
     <t>Ashley Yeh</t>
   </si>
   <si>
-    <t>Marketing Intern</t>
+    <t>Daanya Anand</t>
+  </si>
+  <si>
+    <t>Cody Enokida</t>
+  </si>
+  <si>
+    <t>Meghan Cadigal</t>
+  </si>
+  <si>
+    <t>Aayush Shah</t>
+  </si>
+  <si>
+    <t>Derek Chang</t>
+  </si>
+  <si>
+    <t>Gaurav Mohan</t>
+  </si>
+  <si>
+    <t>Fundrasing</t>
+  </si>
+  <si>
+    <t>Grace Till</t>
   </si>
 </sst>
 </file>
@@ -442,10 +442,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -457,26 +460,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -484,12 +487,12 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -497,7 +500,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -505,7 +508,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -516,15 +519,15 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
